--- a/biology/Zoologie/Erinaceus/Erinaceus.xlsx
+++ b/biology/Zoologie/Erinaceus/Erinaceus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erinaceus est un genre de hérissons qui comprend plusieurs espèces de mammifères insectivores.
 </t>
@@ -511,12 +523,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS[1] et MSW[2] :
-Erinaceus amurensis Schrenk, 1859 - Hérisson de l'Amur[3]
-Erinaceus concolor Martin, 1838 - Hérisson oriental[3]
-Erinaceus europaeus Linnaeus, 1758 - Hérisson commun[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS et MSW :
+Erinaceus amurensis Schrenk, 1859 - Hérisson de l'Amur
+Erinaceus concolor Martin, 1838 - Hérisson oriental
+Erinaceus europaeus Linnaeus, 1758 - Hérisson commun
 Erinaceus roumanicus Barrett-Hamilton, 1900
 Erinaceus manomillus Killian, 1950 - Hérisson bamako</t>
         </is>
@@ -546,7 +560,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Erinaceus sont des espèces protégées.
 Des tunnels sont aménagés sous les autoroutes à leur attention.
